--- a/Sources/Pythone_Scripts/data.xlsx
+++ b/Sources/Pythone_Scripts/data.xlsx
@@ -27,45 +27,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>ewee</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-  <si>
-    <t>sef</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>sfs</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>fe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>on_hands</t>
+  </si>
+  <si>
+    <t>0xA43C43C3</t>
+  </si>
+  <si>
+    <t>Aboba Boba Bobovich</t>
+  </si>
+  <si>
+    <t>2 4 5 3 1</t>
+  </si>
+  <si>
+    <t>0xA43C43C4</t>
+  </si>
+  <si>
+    <t>Bobi Biba Bobovna</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>0xA43C43C5</t>
+  </si>
+  <si>
+    <t>Chpoba Chpobus Chpobocich</t>
+  </si>
+  <si>
+    <t>4 1</t>
+  </si>
+  <si>
+    <t>0xA43C43C6</t>
+  </si>
+  <si>
+    <t>Tuma Tum Sahurovich</t>
+  </si>
+  <si>
+    <t>0xA43C43C7</t>
+  </si>
+  <si>
+    <t>Zhora Ser Ser</t>
   </si>
 </sst>
 </file>
@@ -78,14 +93,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,148 +549,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,15 +1015,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,61 +1042,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Pythone_Scripts/data.xlsx
+++ b/Sources/Pythone_Scripts/data.xlsx
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1128,7 +1128,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Pythone_Scripts/data.xlsx
+++ b/Sources/Pythone_Scripts/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>number</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Zhora Ser Ser</t>
+  </si>
+  <si>
+    <t>0xA43C43C8</t>
+  </si>
+  <si>
+    <t>Zeik oe koe</t>
+  </si>
+  <si>
+    <t>2 3 1</t>
   </si>
 </sst>
 </file>
@@ -1015,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
@@ -1131,6 +1140,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
